--- a/Ocean/customer service/20180011-Agent Portal Ver2-SIT-Test Document _customer_service.xlsx
+++ b/Ocean/customer service/20180011-Agent Portal Ver2-SIT-Test Document _customer_service.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/my_app/Ocean/customer service/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F1D50A0-6DA0-874B-A445-A9CB65BE123A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33616E37-B090-8A4C-B4DB-73FBDA467E4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27560" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="372">
   <si>
     <t>SIT Test Document</t>
   </si>
@@ -1276,6 +1276,33 @@
     "customer_favorite_detail":"แอน"
 }</t>
   </si>
+  <si>
+    <t>TC-getFavorite-004</t>
+  </si>
+  <si>
+    <t>TC-getFavorite-005</t>
+  </si>
+  <si>
+    <t>TC-getFavorite-006</t>
+  </si>
+  <si>
+    <t>agent มี กลุ่มอยู่แล้ว 4 กลุ่ม</t>
+  </si>
+  <si>
+    <t>agent มี กลุ่มอยู่แล้ว 3 กลุ่ม</t>
+  </si>
+  <si>
+    <t>agent มี กลุ่มอยู่แล้ว 2 กลุ่ม</t>
+  </si>
+  <si>
+    <t>ดึงข้อมูลกลุ่ม ได้ 4 กลุ่ม</t>
+  </si>
+  <si>
+    <t>ดึงข้อมูลกลุ่ม ได้ 3 กลุ่ม</t>
+  </si>
+  <si>
+    <t>ดึงข้อมูลกลุ่ม ได้ 2 กลุ่ม</t>
+  </si>
 </sst>
 </file>
 
@@ -1806,7 +1833,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="230">
+  <cellXfs count="231">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -2416,6 +2443,7 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2426,27 +2454,10 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="9" fillId="13" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -2455,6 +2466,23 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="13" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="23" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2465,7 +2493,151 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="151">
+  <dxfs count="169">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF2F2F2"/>
+          <bgColor rgb="FFF2F2F2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF7030A0"/>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFBFBFBF"/>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF2F2F2"/>
+          <bgColor rgb="FFF2F2F2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF7030A0"/>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFBFBFBF"/>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF2F2F2"/>
+          <bgColor rgb="FFF2F2F2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF7030A0"/>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFBFBFBF"/>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -3677,12 +3849,12 @@
   </dxfs>
   <tableStyles count="2">
     <tableStyle name="Test Checklist-style" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="150"/>
-      <tableStyleElement type="secondRowStripe" dxfId="149"/>
+      <tableStyleElement type="firstRowStripe" dxfId="168"/>
+      <tableStyleElement type="secondRowStripe" dxfId="167"/>
     </tableStyle>
     <tableStyle name="Test Checklist-style 2" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="148"/>
-      <tableStyleElement type="secondRowStripe" dxfId="147"/>
+      <tableStyleElement type="firstRowStripe" dxfId="166"/>
+      <tableStyleElement type="secondRowStripe" dxfId="165"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -5308,14 +5480,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A1" s="209" t="s">
+      <c r="A1" s="210" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="210"/>
-      <c r="C1" s="210"/>
-      <c r="D1" s="210"/>
-      <c r="E1" s="210"/>
-      <c r="F1" s="210"/>
+      <c r="B1" s="211"/>
+      <c r="C1" s="211"/>
+      <c r="D1" s="211"/>
+      <c r="E1" s="211"/>
+      <c r="F1" s="211"/>
     </row>
     <row r="2" spans="1:6" ht="14">
       <c r="A2" s="1"/>
@@ -5329,11 +5501,11 @@
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="211">
+      <c r="B3" s="212">
         <f>'Test Summary'!B3</f>
         <v>20180011</v>
       </c>
-      <c r="C3" s="210"/>
+      <c r="C3" s="211"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -5342,11 +5514,11 @@
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="212" t="str">
+      <c r="B4" s="213" t="str">
         <f>'Test Summary'!B4</f>
         <v>Agent Portal Ver2</v>
       </c>
-      <c r="C4" s="210"/>
+      <c r="C4" s="211"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -5355,10 +5527,10 @@
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="212" t="s">
+      <c r="B5" s="213" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="210"/>
+      <c r="C5" s="211"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -13639,11 +13811,11 @@
       <c r="A3" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="221">
+      <c r="B3" s="214">
         <v>20180011</v>
       </c>
-      <c r="C3" s="216"/>
-      <c r="D3" s="222"/>
+      <c r="C3" s="215"/>
+      <c r="D3" s="216"/>
       <c r="E3" s="21"/>
       <c r="F3" s="21"/>
       <c r="G3" s="21"/>
@@ -13662,11 +13834,11 @@
       <c r="A4" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="223" t="s">
+      <c r="B4" s="217" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="224"/>
-      <c r="D4" s="225"/>
+      <c r="C4" s="218"/>
+      <c r="D4" s="219"/>
       <c r="E4" s="21"/>
       <c r="F4" s="21"/>
       <c r="G4" s="21"/>
@@ -13685,11 +13857,11 @@
       <c r="A5" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="223" t="s">
+      <c r="B5" s="217" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="224"/>
-      <c r="D5" s="225"/>
+      <c r="C5" s="218"/>
+      <c r="D5" s="219"/>
       <c r="E5" s="21"/>
       <c r="F5" s="21"/>
       <c r="G5" s="21"/>
@@ -13708,11 +13880,11 @@
       <c r="A6" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="226" t="s">
+      <c r="B6" s="220" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="216"/>
-      <c r="D6" s="222"/>
+      <c r="C6" s="215"/>
+      <c r="D6" s="216"/>
       <c r="E6" s="21"/>
       <c r="F6" s="21"/>
       <c r="G6" s="21"/>
@@ -14743,53 +14915,53 @@
       <c r="Q54" s="22"/>
     </row>
     <row r="55" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A55" s="213" t="s">
+      <c r="A55" s="221" t="s">
         <v>39</v>
       </c>
-      <c r="B55" s="213" t="s">
+      <c r="B55" s="221" t="s">
         <v>40</v>
       </c>
-      <c r="C55" s="213" t="s">
+      <c r="C55" s="221" t="s">
         <v>41</v>
       </c>
-      <c r="D55" s="213" t="s">
+      <c r="D55" s="221" t="s">
         <v>42</v>
       </c>
-      <c r="E55" s="219" t="s">
+      <c r="E55" s="226" t="s">
         <v>43</v>
       </c>
-      <c r="F55" s="220" t="s">
+      <c r="F55" s="227" t="s">
         <v>44</v>
       </c>
-      <c r="G55" s="220" t="s">
+      <c r="G55" s="227" t="s">
         <v>45</v>
       </c>
-      <c r="H55" s="220" t="s">
+      <c r="H55" s="227" t="s">
         <v>11</v>
       </c>
-      <c r="I55" s="215" t="s">
+      <c r="I55" s="224" t="s">
         <v>46</v>
       </c>
-      <c r="J55" s="216"/>
-      <c r="K55" s="216"/>
-      <c r="L55" s="216"/>
-      <c r="M55" s="216"/>
-      <c r="N55" s="216"/>
-      <c r="O55" s="216"/>
-      <c r="P55" s="217" t="s">
+      <c r="J55" s="215"/>
+      <c r="K55" s="215"/>
+      <c r="L55" s="215"/>
+      <c r="M55" s="215"/>
+      <c r="N55" s="215"/>
+      <c r="O55" s="215"/>
+      <c r="P55" s="225" t="s">
         <v>38</v>
       </c>
       <c r="Q55" s="43"/>
     </row>
     <row r="56" spans="1:17" ht="33.75" customHeight="1">
-      <c r="A56" s="214"/>
-      <c r="B56" s="214"/>
-      <c r="C56" s="214"/>
-      <c r="D56" s="218"/>
-      <c r="E56" s="218"/>
-      <c r="F56" s="218"/>
-      <c r="G56" s="218"/>
-      <c r="H56" s="218"/>
+      <c r="A56" s="223"/>
+      <c r="B56" s="223"/>
+      <c r="C56" s="223"/>
+      <c r="D56" s="222"/>
+      <c r="E56" s="222"/>
+      <c r="F56" s="222"/>
+      <c r="G56" s="222"/>
+      <c r="H56" s="222"/>
       <c r="I56" s="51" t="s">
         <v>47</v>
       </c>
@@ -14811,7 +14983,7 @@
       <c r="O56" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="P56" s="218"/>
+      <c r="P56" s="222"/>
       <c r="Q56" s="43"/>
     </row>
     <row r="57" spans="1:17" ht="33" customHeight="1">
@@ -17038,11 +17210,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="D55:D56"/>
     <mergeCell ref="A55:A56"/>
     <mergeCell ref="B55:B56"/>
     <mergeCell ref="C55:C56"/>
@@ -17052,109 +17219,114 @@
     <mergeCell ref="F55:F56"/>
     <mergeCell ref="G55:G56"/>
     <mergeCell ref="H55:H56"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="D55:D56"/>
   </mergeCells>
   <conditionalFormatting sqref="F9 I9">
-    <cfRule type="cellIs" dxfId="146" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="1" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9 I9">
-    <cfRule type="cellIs" dxfId="145" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="2" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9 I9">
-    <cfRule type="cellIs" dxfId="144" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="3" operator="equal">
       <formula>"Not Ready for Test"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9 I9">
-    <cfRule type="cellIs" dxfId="143" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="4" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9 I9">
-    <cfRule type="cellIs" dxfId="142" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="5" operator="equal">
       <formula>"Cancelled"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L56">
-    <cfRule type="cellIs" dxfId="141" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="6" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L56">
-    <cfRule type="cellIs" dxfId="140" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="7" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L56">
-    <cfRule type="cellIs" dxfId="139" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="8" operator="equal">
       <formula>"Not Ready for Test"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L56">
-    <cfRule type="cellIs" dxfId="138" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="9" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L56">
-    <cfRule type="cellIs" dxfId="137" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="10" operator="equal">
       <formula>"Cancelled"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O57:O74">
-    <cfRule type="cellIs" dxfId="136" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="11" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O57:O74">
-    <cfRule type="cellIs" dxfId="135" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="12" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O57:O74">
-    <cfRule type="cellIs" dxfId="134" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="13" operator="equal">
       <formula>"Not Ready for Test"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O57:O74">
-    <cfRule type="cellIs" dxfId="133" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="14" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O57:O74">
-    <cfRule type="cellIs" dxfId="132" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="15" operator="equal">
       <formula>"Cancelled"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B57:B74">
-    <cfRule type="cellIs" dxfId="131" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="16" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B57:B74">
-    <cfRule type="cellIs" dxfId="130" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="17" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B57:B74">
-    <cfRule type="cellIs" dxfId="129" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="18" operator="equal">
       <formula>"Not Start"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E120:E122">
-    <cfRule type="cellIs" dxfId="128" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="19" operator="equal">
       <formula>"Not Start"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E120:E122">
-    <cfRule type="cellIs" dxfId="127" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="20" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E120:E122">
-    <cfRule type="cellIs" dxfId="126" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="21" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17185,8 +17357,8 @@
   <dimension ref="A1:N874"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F49" sqref="F49"/>
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
@@ -17250,22 +17422,22 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="15" customHeight="1">
-      <c r="A2" s="227" t="s">
+      <c r="A2" s="228" t="s">
         <v>226</v>
       </c>
-      <c r="B2" s="228"/>
-      <c r="C2" s="228"/>
-      <c r="D2" s="228"/>
-      <c r="E2" s="228"/>
-      <c r="F2" s="228"/>
-      <c r="G2" s="228"/>
-      <c r="H2" s="228"/>
-      <c r="I2" s="228"/>
-      <c r="J2" s="228"/>
-      <c r="K2" s="228"/>
-      <c r="L2" s="228"/>
-      <c r="M2" s="228"/>
-      <c r="N2" s="229"/>
+      <c r="B2" s="229"/>
+      <c r="C2" s="229"/>
+      <c r="D2" s="229"/>
+      <c r="E2" s="229"/>
+      <c r="F2" s="229"/>
+      <c r="G2" s="229"/>
+      <c r="H2" s="229"/>
+      <c r="I2" s="229"/>
+      <c r="J2" s="229"/>
+      <c r="K2" s="229"/>
+      <c r="L2" s="229"/>
+      <c r="M2" s="229"/>
+      <c r="N2" s="230"/>
     </row>
     <row r="3" spans="1:14" ht="56" outlineLevel="1">
       <c r="A3" s="100" t="s">
@@ -17539,15 +17711,27 @@
       <c r="M13" s="106"/>
       <c r="N13" s="106"/>
     </row>
-    <row r="14" spans="1:14" ht="15" customHeight="1" outlineLevel="1">
-      <c r="A14" s="107"/>
-      <c r="B14" s="107"/>
-      <c r="C14" s="101"/>
-      <c r="D14" s="107"/>
-      <c r="E14" s="101"/>
+    <row r="14" spans="1:14" s="209" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
+      <c r="A14" s="200" t="s">
+        <v>363</v>
+      </c>
+      <c r="B14" s="101" t="s">
+        <v>227</v>
+      </c>
+      <c r="C14" s="107"/>
+      <c r="D14" s="201" t="s">
+        <v>253</v>
+      </c>
+      <c r="E14" s="201" t="s">
+        <v>366</v>
+      </c>
       <c r="F14" s="109"/>
-      <c r="G14" s="117"/>
-      <c r="H14" s="109"/>
+      <c r="G14" s="199" t="s">
+        <v>369</v>
+      </c>
+      <c r="H14" s="199" t="s">
+        <v>264</v>
+      </c>
       <c r="I14" s="107"/>
       <c r="J14" s="105"/>
       <c r="K14" s="106"/>
@@ -17555,15 +17739,27 @@
       <c r="M14" s="106"/>
       <c r="N14" s="106"/>
     </row>
-    <row r="15" spans="1:14" ht="15" customHeight="1" outlineLevel="1">
-      <c r="A15" s="107"/>
-      <c r="B15" s="107"/>
-      <c r="C15" s="101"/>
-      <c r="D15" s="107"/>
-      <c r="E15" s="101"/>
+    <row r="15" spans="1:14" s="209" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
+      <c r="A15" s="200" t="s">
+        <v>364</v>
+      </c>
+      <c r="B15" s="101" t="s">
+        <v>227</v>
+      </c>
+      <c r="C15" s="107"/>
+      <c r="D15" s="201" t="s">
+        <v>253</v>
+      </c>
+      <c r="E15" s="201" t="s">
+        <v>367</v>
+      </c>
       <c r="F15" s="109"/>
-      <c r="G15" s="117"/>
-      <c r="H15" s="109"/>
+      <c r="G15" s="199" t="s">
+        <v>370</v>
+      </c>
+      <c r="H15" s="199" t="s">
+        <v>264</v>
+      </c>
       <c r="I15" s="107"/>
       <c r="J15" s="105"/>
       <c r="K15" s="106"/>
@@ -17571,15 +17767,27 @@
       <c r="M15" s="106"/>
       <c r="N15" s="106"/>
     </row>
-    <row r="16" spans="1:14" ht="15" customHeight="1" outlineLevel="1">
-      <c r="A16" s="107"/>
-      <c r="B16" s="107"/>
-      <c r="C16" s="101"/>
-      <c r="D16" s="107"/>
-      <c r="E16" s="101"/>
+    <row r="16" spans="1:14" s="209" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
+      <c r="A16" s="200" t="s">
+        <v>365</v>
+      </c>
+      <c r="B16" s="101" t="s">
+        <v>227</v>
+      </c>
+      <c r="C16" s="107"/>
+      <c r="D16" s="201" t="s">
+        <v>253</v>
+      </c>
+      <c r="E16" s="201" t="s">
+        <v>368</v>
+      </c>
       <c r="F16" s="109"/>
-      <c r="G16" s="117"/>
-      <c r="H16" s="109"/>
+      <c r="G16" s="199" t="s">
+        <v>371</v>
+      </c>
+      <c r="H16" s="199" t="s">
+        <v>264</v>
+      </c>
       <c r="I16" s="107"/>
       <c r="J16" s="105"/>
       <c r="K16" s="106"/>
@@ -31591,632 +31799,722 @@
   <mergeCells count="1">
     <mergeCell ref="A2:N2"/>
   </mergeCells>
-  <conditionalFormatting sqref="J3 J11 J19 J25:J43 J51:J54 I400:I874 J9 J14:J17 J21:J23 J62:J874">
+  <conditionalFormatting sqref="J3 J11 J19 J25:J43 J51:J54 I400:I874 J9 J17 J21:J23 J62:J874">
+    <cfRule type="cellIs" dxfId="143" priority="145" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3 J11 J19 J25:J43 J51:J54 I400:I874 J9 J17 J21:J23 J62:J874">
+    <cfRule type="cellIs" dxfId="142" priority="146" operator="equal">
+      <formula>"Cancelled"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3 J11 J19 J25:J43 J51:J54 I400:I874 J9 J17 J21:J23 J62:J874">
+    <cfRule type="cellIs" dxfId="141" priority="147" operator="equal">
+      <formula>"Pending"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3 J11 J19 J25:J43 J51:J54 I400:I874 J9 J17 J21:J23 J62:J874">
+    <cfRule type="cellIs" dxfId="140" priority="148" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3 J11 J19 J25:J43 J51:J54 I400:I874 J9 J17 J21:J23 J62:J874">
+    <cfRule type="cellIs" dxfId="139" priority="149" operator="equal">
+      <formula>"In Progress"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3 J11 J19 J25:J43 J51:J54 I400:I874 J9 J17 J21:J23 J62:J874">
+    <cfRule type="cellIs" dxfId="138" priority="150" operator="equal">
+      <formula>"Not Start"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J8">
+    <cfRule type="cellIs" dxfId="137" priority="139" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J8">
+    <cfRule type="cellIs" dxfId="136" priority="140" operator="equal">
+      <formula>"Cancelled"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J8">
+    <cfRule type="cellIs" dxfId="135" priority="141" operator="equal">
+      <formula>"Pending"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J8">
+    <cfRule type="cellIs" dxfId="134" priority="142" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J8">
+    <cfRule type="cellIs" dxfId="133" priority="143" operator="equal">
+      <formula>"In Progress"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J8">
+    <cfRule type="cellIs" dxfId="132" priority="144" operator="equal">
+      <formula>"Not Start"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4">
+    <cfRule type="cellIs" dxfId="131" priority="133" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4">
+    <cfRule type="cellIs" dxfId="130" priority="134" operator="equal">
+      <formula>"Cancelled"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4">
+    <cfRule type="cellIs" dxfId="129" priority="135" operator="equal">
+      <formula>"Pending"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4">
+    <cfRule type="cellIs" dxfId="128" priority="136" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4">
+    <cfRule type="cellIs" dxfId="127" priority="137" operator="equal">
+      <formula>"In Progress"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4">
+    <cfRule type="cellIs" dxfId="126" priority="138" operator="equal">
+      <formula>"Not Start"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J5">
     <cfRule type="cellIs" dxfId="125" priority="127" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3 J11 J19 J25:J43 J51:J54 I400:I874 J9 J14:J17 J21:J23 J62:J874">
+  <conditionalFormatting sqref="J5">
     <cfRule type="cellIs" dxfId="124" priority="128" operator="equal">
       <formula>"Cancelled"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3 J11 J19 J25:J43 J51:J54 I400:I874 J9 J14:J17 J21:J23 J62:J874">
+  <conditionalFormatting sqref="J5">
     <cfRule type="cellIs" dxfId="123" priority="129" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3 J11 J19 J25:J43 J51:J54 I400:I874 J9 J14:J17 J21:J23 J62:J874">
+  <conditionalFormatting sqref="J5">
     <cfRule type="cellIs" dxfId="122" priority="130" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3 J11 J19 J25:J43 J51:J54 I400:I874 J9 J14:J17 J21:J23 J62:J874">
+  <conditionalFormatting sqref="J5">
     <cfRule type="cellIs" dxfId="121" priority="131" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3 J11 J19 J25:J43 J51:J54 I400:I874 J9 J14:J17 J21:J23 J62:J874">
+  <conditionalFormatting sqref="J5">
     <cfRule type="cellIs" dxfId="120" priority="132" operator="equal">
       <formula>"Not Start"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J8">
+  <conditionalFormatting sqref="J6">
     <cfRule type="cellIs" dxfId="119" priority="121" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J8">
+  <conditionalFormatting sqref="J6">
     <cfRule type="cellIs" dxfId="118" priority="122" operator="equal">
       <formula>"Cancelled"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J8">
+  <conditionalFormatting sqref="J6">
     <cfRule type="cellIs" dxfId="117" priority="123" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J8">
+  <conditionalFormatting sqref="J6">
     <cfRule type="cellIs" dxfId="116" priority="124" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J8">
+  <conditionalFormatting sqref="J6">
     <cfRule type="cellIs" dxfId="115" priority="125" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J8">
+  <conditionalFormatting sqref="J6">
     <cfRule type="cellIs" dxfId="114" priority="126" operator="equal">
       <formula>"Not Start"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J4">
+  <conditionalFormatting sqref="J7">
     <cfRule type="cellIs" dxfId="113" priority="115" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J4">
+  <conditionalFormatting sqref="J7">
     <cfRule type="cellIs" dxfId="112" priority="116" operator="equal">
       <formula>"Cancelled"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J4">
+  <conditionalFormatting sqref="J7">
     <cfRule type="cellIs" dxfId="111" priority="117" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J4">
+  <conditionalFormatting sqref="J7">
     <cfRule type="cellIs" dxfId="110" priority="118" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J4">
+  <conditionalFormatting sqref="J7">
     <cfRule type="cellIs" dxfId="109" priority="119" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J4">
+  <conditionalFormatting sqref="J7">
     <cfRule type="cellIs" dxfId="108" priority="120" operator="equal">
       <formula>"Not Start"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J5">
+  <conditionalFormatting sqref="J12">
     <cfRule type="cellIs" dxfId="107" priority="109" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J5">
+  <conditionalFormatting sqref="J12">
     <cfRule type="cellIs" dxfId="106" priority="110" operator="equal">
       <formula>"Cancelled"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J5">
+  <conditionalFormatting sqref="J12">
     <cfRule type="cellIs" dxfId="105" priority="111" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J5">
+  <conditionalFormatting sqref="J12">
     <cfRule type="cellIs" dxfId="104" priority="112" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J5">
+  <conditionalFormatting sqref="J12">
     <cfRule type="cellIs" dxfId="103" priority="113" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J5">
+  <conditionalFormatting sqref="J12">
     <cfRule type="cellIs" dxfId="102" priority="114" operator="equal">
       <formula>"Not Start"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J6">
+  <conditionalFormatting sqref="J13">
     <cfRule type="cellIs" dxfId="101" priority="103" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J6">
+  <conditionalFormatting sqref="J13">
     <cfRule type="cellIs" dxfId="100" priority="104" operator="equal">
       <formula>"Cancelled"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J6">
+  <conditionalFormatting sqref="J13">
     <cfRule type="cellIs" dxfId="99" priority="105" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J6">
+  <conditionalFormatting sqref="J13">
     <cfRule type="cellIs" dxfId="98" priority="106" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J6">
+  <conditionalFormatting sqref="J13">
     <cfRule type="cellIs" dxfId="97" priority="107" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J6">
+  <conditionalFormatting sqref="J13">
     <cfRule type="cellIs" dxfId="96" priority="108" operator="equal">
       <formula>"Not Start"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J7">
+  <conditionalFormatting sqref="J20">
     <cfRule type="cellIs" dxfId="95" priority="97" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J7">
+  <conditionalFormatting sqref="J20">
     <cfRule type="cellIs" dxfId="94" priority="98" operator="equal">
       <formula>"Cancelled"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J7">
+  <conditionalFormatting sqref="J20">
     <cfRule type="cellIs" dxfId="93" priority="99" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J7">
+  <conditionalFormatting sqref="J20">
     <cfRule type="cellIs" dxfId="92" priority="100" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J7">
+  <conditionalFormatting sqref="J20">
     <cfRule type="cellIs" dxfId="91" priority="101" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J7">
+  <conditionalFormatting sqref="J20">
     <cfRule type="cellIs" dxfId="90" priority="102" operator="equal">
       <formula>"Not Start"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J12">
+  <conditionalFormatting sqref="J45">
     <cfRule type="cellIs" dxfId="89" priority="91" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J12">
+  <conditionalFormatting sqref="J45">
     <cfRule type="cellIs" dxfId="88" priority="92" operator="equal">
       <formula>"Cancelled"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J12">
+  <conditionalFormatting sqref="J45">
     <cfRule type="cellIs" dxfId="87" priority="93" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J12">
+  <conditionalFormatting sqref="J45">
     <cfRule type="cellIs" dxfId="86" priority="94" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J12">
+  <conditionalFormatting sqref="J45">
     <cfRule type="cellIs" dxfId="85" priority="95" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J12">
+  <conditionalFormatting sqref="J45">
     <cfRule type="cellIs" dxfId="84" priority="96" operator="equal">
       <formula>"Not Start"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J13">
+  <conditionalFormatting sqref="J46 J50">
     <cfRule type="cellIs" dxfId="83" priority="85" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J13">
+  <conditionalFormatting sqref="J46 J50">
     <cfRule type="cellIs" dxfId="82" priority="86" operator="equal">
       <formula>"Cancelled"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J13">
+  <conditionalFormatting sqref="J46 J50">
     <cfRule type="cellIs" dxfId="81" priority="87" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J13">
+  <conditionalFormatting sqref="J46 J50">
     <cfRule type="cellIs" dxfId="80" priority="88" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J13">
+  <conditionalFormatting sqref="J46 J50">
     <cfRule type="cellIs" dxfId="79" priority="89" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J13">
+  <conditionalFormatting sqref="J46 J50">
     <cfRule type="cellIs" dxfId="78" priority="90" operator="equal">
       <formula>"Not Start"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J20">
-    <cfRule type="cellIs" dxfId="77" priority="79" operator="equal">
+  <conditionalFormatting sqref="J55">
+    <cfRule type="cellIs" dxfId="77" priority="73" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J20">
-    <cfRule type="cellIs" dxfId="76" priority="80" operator="equal">
+  <conditionalFormatting sqref="J55">
+    <cfRule type="cellIs" dxfId="76" priority="74" operator="equal">
       <formula>"Cancelled"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J20">
-    <cfRule type="cellIs" dxfId="75" priority="81" operator="equal">
+  <conditionalFormatting sqref="J55">
+    <cfRule type="cellIs" dxfId="75" priority="75" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J20">
-    <cfRule type="cellIs" dxfId="74" priority="82" operator="equal">
+  <conditionalFormatting sqref="J55">
+    <cfRule type="cellIs" dxfId="74" priority="76" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J20">
-    <cfRule type="cellIs" dxfId="73" priority="83" operator="equal">
+  <conditionalFormatting sqref="J55">
+    <cfRule type="cellIs" dxfId="73" priority="77" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J20">
-    <cfRule type="cellIs" dxfId="72" priority="84" operator="equal">
+  <conditionalFormatting sqref="J55">
+    <cfRule type="cellIs" dxfId="72" priority="78" operator="equal">
       <formula>"Not Start"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J45">
-    <cfRule type="cellIs" dxfId="71" priority="73" operator="equal">
+  <conditionalFormatting sqref="J56">
+    <cfRule type="cellIs" dxfId="71" priority="67" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J45">
-    <cfRule type="cellIs" dxfId="70" priority="74" operator="equal">
+  <conditionalFormatting sqref="J56">
+    <cfRule type="cellIs" dxfId="70" priority="68" operator="equal">
       <formula>"Cancelled"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J45">
-    <cfRule type="cellIs" dxfId="69" priority="75" operator="equal">
+  <conditionalFormatting sqref="J56">
+    <cfRule type="cellIs" dxfId="69" priority="69" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J45">
-    <cfRule type="cellIs" dxfId="68" priority="76" operator="equal">
+  <conditionalFormatting sqref="J56">
+    <cfRule type="cellIs" dxfId="68" priority="70" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J45">
-    <cfRule type="cellIs" dxfId="67" priority="77" operator="equal">
+  <conditionalFormatting sqref="J56">
+    <cfRule type="cellIs" dxfId="67" priority="71" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J45">
-    <cfRule type="cellIs" dxfId="66" priority="78" operator="equal">
+  <conditionalFormatting sqref="J56">
+    <cfRule type="cellIs" dxfId="66" priority="72" operator="equal">
       <formula>"Not Start"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J46 J50">
-    <cfRule type="cellIs" dxfId="65" priority="67" operator="equal">
+  <conditionalFormatting sqref="J57">
+    <cfRule type="cellIs" dxfId="65" priority="61" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J46 J50">
-    <cfRule type="cellIs" dxfId="64" priority="68" operator="equal">
+  <conditionalFormatting sqref="J57">
+    <cfRule type="cellIs" dxfId="64" priority="62" operator="equal">
       <formula>"Cancelled"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J46 J50">
-    <cfRule type="cellIs" dxfId="63" priority="69" operator="equal">
+  <conditionalFormatting sqref="J57">
+    <cfRule type="cellIs" dxfId="63" priority="63" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J46 J50">
-    <cfRule type="cellIs" dxfId="62" priority="70" operator="equal">
+  <conditionalFormatting sqref="J57">
+    <cfRule type="cellIs" dxfId="62" priority="64" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J46 J50">
-    <cfRule type="cellIs" dxfId="61" priority="71" operator="equal">
+  <conditionalFormatting sqref="J57">
+    <cfRule type="cellIs" dxfId="61" priority="65" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J46 J50">
-    <cfRule type="cellIs" dxfId="60" priority="72" operator="equal">
+  <conditionalFormatting sqref="J57">
+    <cfRule type="cellIs" dxfId="60" priority="66" operator="equal">
       <formula>"Not Start"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J55">
+  <conditionalFormatting sqref="J58">
     <cfRule type="cellIs" dxfId="59" priority="55" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J55">
+  <conditionalFormatting sqref="J58">
     <cfRule type="cellIs" dxfId="58" priority="56" operator="equal">
       <formula>"Cancelled"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J55">
+  <conditionalFormatting sqref="J58">
     <cfRule type="cellIs" dxfId="57" priority="57" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J55">
+  <conditionalFormatting sqref="J58">
     <cfRule type="cellIs" dxfId="56" priority="58" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J55">
+  <conditionalFormatting sqref="J58">
     <cfRule type="cellIs" dxfId="55" priority="59" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J55">
+  <conditionalFormatting sqref="J58">
     <cfRule type="cellIs" dxfId="54" priority="60" operator="equal">
       <formula>"Not Start"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J56">
+  <conditionalFormatting sqref="J59">
     <cfRule type="cellIs" dxfId="53" priority="49" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J56">
+  <conditionalFormatting sqref="J59">
     <cfRule type="cellIs" dxfId="52" priority="50" operator="equal">
       <formula>"Cancelled"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J56">
+  <conditionalFormatting sqref="J59">
     <cfRule type="cellIs" dxfId="51" priority="51" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J56">
+  <conditionalFormatting sqref="J59">
     <cfRule type="cellIs" dxfId="50" priority="52" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J56">
+  <conditionalFormatting sqref="J59">
     <cfRule type="cellIs" dxfId="49" priority="53" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J56">
+  <conditionalFormatting sqref="J59">
     <cfRule type="cellIs" dxfId="48" priority="54" operator="equal">
       <formula>"Not Start"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J57">
+  <conditionalFormatting sqref="J60">
     <cfRule type="cellIs" dxfId="47" priority="43" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J57">
+  <conditionalFormatting sqref="J60">
     <cfRule type="cellIs" dxfId="46" priority="44" operator="equal">
       <formula>"Cancelled"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J57">
+  <conditionalFormatting sqref="J60">
     <cfRule type="cellIs" dxfId="45" priority="45" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J57">
+  <conditionalFormatting sqref="J60">
     <cfRule type="cellIs" dxfId="44" priority="46" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J57">
+  <conditionalFormatting sqref="J60">
     <cfRule type="cellIs" dxfId="43" priority="47" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J57">
+  <conditionalFormatting sqref="J60">
     <cfRule type="cellIs" dxfId="42" priority="48" operator="equal">
       <formula>"Not Start"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J58">
+  <conditionalFormatting sqref="J61">
     <cfRule type="cellIs" dxfId="41" priority="37" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J58">
+  <conditionalFormatting sqref="J61">
     <cfRule type="cellIs" dxfId="40" priority="38" operator="equal">
       <formula>"Cancelled"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J58">
+  <conditionalFormatting sqref="J61">
     <cfRule type="cellIs" dxfId="39" priority="39" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J58">
+  <conditionalFormatting sqref="J61">
     <cfRule type="cellIs" dxfId="38" priority="40" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J58">
+  <conditionalFormatting sqref="J61">
     <cfRule type="cellIs" dxfId="37" priority="41" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J58">
+  <conditionalFormatting sqref="J61">
     <cfRule type="cellIs" dxfId="36" priority="42" operator="equal">
       <formula>"Not Start"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J59">
+  <conditionalFormatting sqref="J47">
     <cfRule type="cellIs" dxfId="35" priority="31" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J59">
+  <conditionalFormatting sqref="J47">
     <cfRule type="cellIs" dxfId="34" priority="32" operator="equal">
       <formula>"Cancelled"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J59">
+  <conditionalFormatting sqref="J47">
     <cfRule type="cellIs" dxfId="33" priority="33" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J59">
+  <conditionalFormatting sqref="J47">
     <cfRule type="cellIs" dxfId="32" priority="34" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J59">
+  <conditionalFormatting sqref="J47">
     <cfRule type="cellIs" dxfId="31" priority="35" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J59">
+  <conditionalFormatting sqref="J47">
     <cfRule type="cellIs" dxfId="30" priority="36" operator="equal">
       <formula>"Not Start"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J60">
+  <conditionalFormatting sqref="J48">
     <cfRule type="cellIs" dxfId="29" priority="25" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J60">
+  <conditionalFormatting sqref="J48">
     <cfRule type="cellIs" dxfId="28" priority="26" operator="equal">
       <formula>"Cancelled"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J60">
+  <conditionalFormatting sqref="J48">
     <cfRule type="cellIs" dxfId="27" priority="27" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J60">
+  <conditionalFormatting sqref="J48">
     <cfRule type="cellIs" dxfId="26" priority="28" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J60">
+  <conditionalFormatting sqref="J48">
     <cfRule type="cellIs" dxfId="25" priority="29" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J60">
+  <conditionalFormatting sqref="J48">
     <cfRule type="cellIs" dxfId="24" priority="30" operator="equal">
       <formula>"Not Start"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J61">
+  <conditionalFormatting sqref="J49">
     <cfRule type="cellIs" dxfId="23" priority="19" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J61">
+  <conditionalFormatting sqref="J49">
     <cfRule type="cellIs" dxfId="22" priority="20" operator="equal">
       <formula>"Cancelled"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J61">
+  <conditionalFormatting sqref="J49">
     <cfRule type="cellIs" dxfId="21" priority="21" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J61">
+  <conditionalFormatting sqref="J49">
     <cfRule type="cellIs" dxfId="20" priority="22" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J61">
+  <conditionalFormatting sqref="J49">
     <cfRule type="cellIs" dxfId="19" priority="23" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J61">
+  <conditionalFormatting sqref="J49">
     <cfRule type="cellIs" dxfId="18" priority="24" operator="equal">
       <formula>"Not Start"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J47">
+  <conditionalFormatting sqref="J14">
     <cfRule type="cellIs" dxfId="17" priority="13" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J47">
+  <conditionalFormatting sqref="J14">
     <cfRule type="cellIs" dxfId="16" priority="14" operator="equal">
       <formula>"Cancelled"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J47">
+  <conditionalFormatting sqref="J14">
     <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J47">
+  <conditionalFormatting sqref="J14">
     <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J47">
+  <conditionalFormatting sqref="J14">
     <cfRule type="cellIs" dxfId="13" priority="17" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J47">
+  <conditionalFormatting sqref="J14">
     <cfRule type="cellIs" dxfId="12" priority="18" operator="equal">
       <formula>"Not Start"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J48">
+  <conditionalFormatting sqref="J15">
     <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J48">
+  <conditionalFormatting sqref="J15">
     <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
       <formula>"Cancelled"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J48">
+  <conditionalFormatting sqref="J15">
     <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J48">
+  <conditionalFormatting sqref="J15">
     <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J48">
+  <conditionalFormatting sqref="J15">
     <cfRule type="cellIs" dxfId="7" priority="11" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J48">
+  <conditionalFormatting sqref="J15">
     <cfRule type="cellIs" dxfId="6" priority="12" operator="equal">
       <formula>"Not Start"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J49">
+  <conditionalFormatting sqref="J16">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J49">
+  <conditionalFormatting sqref="J16">
     <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>"Cancelled"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J49">
+  <conditionalFormatting sqref="J16">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J49">
+  <conditionalFormatting sqref="J16">
     <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J49">
+  <conditionalFormatting sqref="J16">
     <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J49">
+  <conditionalFormatting sqref="J16">
     <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
       <formula>"Not Start"</formula>
     </cfRule>
@@ -32230,7 +32528,7 @@
           <x14:formula1>
             <xm:f>Var!$B$3:$B$11</xm:f>
           </x14:formula1>
-          <xm:sqref>J54:J872 J3:J9 J11:J17 J25:J43 J19:J23 J45:J52</xm:sqref>
+          <xm:sqref>J54:J872 J3:J9 J45:J52 J25:J43 J19:J23 J11:J17</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0200-000001000000}">
           <x14:formula1>
@@ -32242,13 +32540,13 @@
           <x14:formula1>
             <xm:f>Var!$G:$G</xm:f>
           </x14:formula1>
-          <xm:sqref>B54:B872 B3:B9 B11:B17 B19:B23 B25:B43 B45:B52</xm:sqref>
+          <xm:sqref>B54:B872 B3:B9 B45:B52 B19:B23 B25:B43 B11:B17</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0200-000003000000}">
           <x14:formula1>
             <xm:f>Var!$F$2:$F$4</xm:f>
           </x14:formula1>
-          <xm:sqref>I54:I399 I3:I9 I11:I17 I25:I43 I19:I22 I45:I52</xm:sqref>
+          <xm:sqref>I54:I399 I3:I9 I45:I52 I25:I43 I19:I22 I11:I17</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
